--- a/OnboardingTest2/OnboardingTest2/ExcelData/TestDataShareSkills.xlsx
+++ b/OnboardingTest2/OnboardingTest2/ExcelData/TestDataShareSkills.xlsx
@@ -4,55 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17780" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="17780"/>
   </bookViews>
   <sheets>
-    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="SignUp" sheetId="2" r:id="rId2"/>
-    <sheet name="ShareSkill" sheetId="3" r:id="rId3"/>
+    <sheet name="ShareSkill" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>http://localhost:5000/Home</t>
-  </si>
-  <si>
-    <t>451075672@qq.com</t>
-  </si>
-  <si>
-    <t>abc123</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ConfirmPswd</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>He</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -63,16 +25,7 @@
     <t>Category</t>
   </si>
   <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>LocationType</t>
+    <t>Tag</t>
   </si>
   <si>
     <t>Startdate</t>
@@ -81,25 +34,13 @@
     <t>Enddate</t>
   </si>
   <si>
-    <t>Selectday</t>
-  </si>
-  <si>
     <t>Starttime</t>
   </si>
   <si>
     <t>Endtime</t>
   </si>
   <si>
-    <t>SkillTrade</t>
-  </si>
-  <si>
-    <t>Skill-Exchange</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Active</t>
+    <t>SKTag</t>
   </si>
   <si>
     <t>Jazz Club</t>
@@ -111,25 +52,16 @@
     <t>Programming &amp; Tech</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>JAZZ</t>
-  </si>
-  <si>
-    <t>One-off service</t>
-  </si>
-  <si>
-    <t>On-site</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Performance Testing</t>
-  </si>
-  <si>
-    <t>Hidden</t>
+    <t>Jazz</t>
+  </si>
+  <si>
+    <t>09.12 AM</t>
+  </si>
+  <si>
+    <t>11.12 AM</t>
+  </si>
+  <si>
+    <t>Photo Skill</t>
   </si>
 </sst>
 </file>
@@ -144,27 +76,13 @@
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -311,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +244,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,12 +352,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -511,12 +435,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,160 +561,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1124,122 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="26.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="19.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://localhost:5000/Home" tooltip="http://localhost:5000/Home"/>
-    <hyperlink ref="B2" r:id="rId2" display="451075672@qq.com" tooltip="mailto:451075672@qq.com"/>
-    <hyperlink ref="C2" r:id="rId3" display="abc123"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="10.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="9.54545454545454" customWidth="1"/>
-    <col min="3" max="3" width="19.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="12.9090909090909" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="451075672@qq.com" tooltip="mailto:451075672@qq.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1252,7 +1082,8 @@
     <col min="6" max="6" width="17.3636363636364" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="9" width="11.8181818181818" customWidth="1"/>
-    <col min="10" max="11" width="10.6363636363636" customWidth="1"/>
+    <col min="10" max="10" width="10.6363636363636" customWidth="1"/>
+    <col min="11" max="11" width="12.9090909090909" customWidth="1"/>
     <col min="12" max="12" width="9.54545454545454" customWidth="1"/>
     <col min="13" max="13" width="16.2727272727273" customWidth="1"/>
     <col min="14" max="14" width="21.9090909090909" customWidth="1"/>
@@ -1261,103 +1092,83 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="3">
-        <v>43567</v>
-      </c>
-      <c r="I2" s="3">
-        <v>43597</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45058</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45506</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
